--- a/modelDB/data/beamline_sequences.xlsx
+++ b/modelDB/data/beamline_sequences.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\intranet.nscl.msu.edu\files\user\chu\My Documents\NetBeansProjects\code\modelDB\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22305" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="22305" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="beamline_sequence" sheetId="8" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,88 +39,99 @@
     <t>LS3_CD01:GV_D4330</t>
   </si>
   <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>LS1</t>
+  </si>
+  <si>
+    <t>FS1</t>
+  </si>
+  <si>
+    <t>LS2</t>
+  </si>
+  <si>
+    <t>FS2</t>
+  </si>
+  <si>
+    <t>LS3</t>
+  </si>
+  <si>
+    <t>BDS</t>
+  </si>
+  <si>
+    <t>sequence_id</t>
+  </si>
+  <si>
+    <t>sequence_name</t>
+  </si>
+  <si>
+    <t>last_element_name</t>
+  </si>
+  <si>
+    <t>sequence_description</t>
+  </si>
+  <si>
+    <t>FE_END</t>
+  </si>
+  <si>
+    <t>FS2_END</t>
+  </si>
+  <si>
+    <t>LS2_END</t>
+  </si>
+  <si>
+    <t>LS3_END</t>
+  </si>
+  <si>
+    <t>LS1_END</t>
+  </si>
+  <si>
+    <t>FS1_END</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>start_s_pos</t>
+  </si>
+  <si>
+    <t>BDS_END</t>
+  </si>
+  <si>
     <t>BDS_BTS:DC_D5467</t>
-  </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>LS1</t>
-  </si>
-  <si>
-    <t>FS1</t>
-  </si>
-  <si>
-    <t>LS2</t>
-  </si>
-  <si>
-    <t>FS2</t>
-  </si>
-  <si>
-    <t>LS3</t>
-  </si>
-  <si>
-    <t>BDS</t>
-  </si>
-  <si>
-    <t>sequence_id</t>
-  </si>
-  <si>
-    <t>sequence_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>first_element_name</t>
-  </si>
-  <si>
-    <t>last_element_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>predecessor_sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sequence_length</t>
-  </si>
-  <si>
-    <t>sequence_description</t>
-  </si>
-  <si>
-    <t>FE_END</t>
-  </si>
-  <si>
-    <t>FS2_END</t>
-  </si>
-  <si>
-    <t>LS2_END</t>
-  </si>
-  <si>
-    <t>LS3_END</t>
-  </si>
-  <si>
-    <t>LS1_END</t>
-  </si>
-  <si>
-    <t>FS1_END</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>start_s_pos</t>
-  </si>
-  <si>
-    <t>BDS_END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -160,7 +166,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -218,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
@@ -253,7 +259,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
@@ -430,7 +436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -441,60 +447,62 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="20.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
       <c r="H1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1">
         <v>43.917797</v>
@@ -504,21 +512,21 @@
         <v>68.490202999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1">
         <v>102.970489</v>
@@ -528,21 +536,21 @@
         <v>112.408</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1">
         <v>55.123196999999998</v>
@@ -552,21 +560,21 @@
         <v>215.378489</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1">
         <v>122.271762</v>
@@ -576,21 +584,21 @@
         <v>270.50168600000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1">
         <v>40.188664000000003</v>
@@ -600,21 +608,21 @@
         <v>392.77344799999997</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
         <v>113.728396</v>
@@ -624,21 +632,21 @@
         <v>432.96211199999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1">
         <v>36</v>
@@ -649,6 +657,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>